--- a/dados.xlsx
+++ b/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>grupo</t>
   </si>
@@ -40,6 +40,9 @@
     <t>exibir_como_botao</t>
   </si>
   <si>
+    <t>estado_relacionado</t>
+  </si>
+  <si>
     <t>Azul Petróleo</t>
   </si>
   <si>
@@ -100,10 +103,16 @@
     <t>puxador1.png</t>
   </si>
   <si>
+    <t>puxadores1</t>
+  </si>
+  <si>
     <t>Puxador Tipo 2</t>
   </si>
   <si>
     <t>puxador2.png</t>
+  </si>
+  <si>
+    <t>puxadores2</t>
   </si>
   <si>
     <t>base</t>
@@ -393,8 +402,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="8.63"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
     <col customWidth="1" min="3" max="3" width="13.75"/>
+    <col customWidth="1" min="4" max="4" width="5.13"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="8.25"/>
     <col customWidth="1" min="7" max="7" width="17.38"/>
+    <col customWidth="1" min="8" max="8" width="13.0"/>
+    <col customWidth="1" min="9" max="11" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,45 +441,52 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>45.0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>45.0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -471,16 +494,17 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>45.0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -488,19 +512,17 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>45.0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -508,19 +530,17 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>45.0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -528,36 +548,40 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>30.0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>30.0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -565,16 +589,17 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>30.0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -582,16 +607,17 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>30.0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -599,16 +625,17 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>30.0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -616,35 +643,37 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -652,15 +681,15 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -668,15 +697,15 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -684,34 +713,36 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -719,15 +750,15 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -735,15 +766,15 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -751,10 +782,10 @@
         <v>3.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>20.0</v>
@@ -763,24 +794,28 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>3.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1">
         <v>20.0</v>
@@ -789,18 +824,22 @@
         <v>1.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>25.0</v>
@@ -809,21 +848,25 @@
         <v>2.0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>3.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
         <v>25.0</v>
@@ -833,116 +876,120 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
         <v>35.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>grupo</t>
   </si>
@@ -409,7 +409,7 @@
     <col customWidth="1" min="5" max="5" width="10.63"/>
     <col customWidth="1" min="6" max="6" width="8.25"/>
     <col customWidth="1" min="7" max="7" width="17.38"/>
-    <col customWidth="1" min="8" max="8" width="13.0"/>
+    <col customWidth="1" min="8" max="8" width="14.5"/>
     <col customWidth="1" min="9" max="11" width="15.13"/>
   </cols>
   <sheetData>
@@ -459,9 +459,11 @@
       <c r="D2" s="1">
         <v>45.0</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -484,8 +486,7 @@
       <c r="D3" s="1">
         <v>45.0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -502,8 +503,7 @@
       <c r="D4" s="1">
         <v>45.0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -520,9 +520,11 @@
       <c r="D5" s="1">
         <v>45.0</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -538,9 +540,11 @@
       <c r="D6" s="1">
         <v>45.0</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -556,8 +560,7 @@
       <c r="D7" s="1">
         <v>30.0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1"/>
@@ -579,8 +582,7 @@
       <c r="D8" s="1">
         <v>30.0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -597,8 +599,7 @@
       <c r="D9" s="1">
         <v>30.0</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -615,8 +616,7 @@
       <c r="D10" s="1">
         <v>30.0</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -633,8 +633,7 @@
       <c r="D11" s="1">
         <v>30.0</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -796,9 +795,6 @@
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
@@ -946,9 +942,6 @@
       <c r="G28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -960,9 +953,6 @@
       <c r="G29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -973,9 +963,6 @@
       </c>
       <c r="G30" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -468,9 +468,6 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3">
@@ -563,8 +560,7 @@
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="1"/>
@@ -795,6 +791,9 @@
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
